--- a/results/cifar10-on-ResNet18-add-gaussian-blur-gradient-based-attacks.xlsx
+++ b/results/cifar10-on-ResNet18-add-gaussian-blur-gradient-based-attacks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adzie\code\bandlimited-cnns\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BFB9C7-30AD-4E24-976C-4EF8CC152045}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0D6DF6-E373-4E48-9139-E2BDF811D76E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="12192" tabRatio="807" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="12192" tabRatio="807" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cifar10-on-ResNet18-add-gaussia" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,14 @@
     <sheet name="results" sheetId="4" r:id="rId4"/>
     <sheet name="graphAdditiveUniformNoise" sheetId="5" r:id="rId5"/>
     <sheet name="GradientSignAttack" sheetId="6" r:id="rId6"/>
+    <sheet name="GradientSignRound" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="33">
   <si>
     <t>epsilon</t>
   </si>
@@ -126,6 +119,12 @@
   </si>
   <si>
     <t>counter:  1000  min:  -2.4290657  max:  2.7537313</t>
+  </si>
+  <si>
+    <t>attack type:  GradientSignAttack</t>
+  </si>
+  <si>
+    <t>GradientSignAttack</t>
   </si>
 </sst>
 </file>
@@ -5901,8 +5900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9E714F-1323-4878-B5E9-E63B10F08A2E}">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7694,10 +7693,677 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A42:G53">
+  <sortState ref="A42:G53">
     <sortCondition ref="C42:C53"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C460BE-E48D-4A66-A778-EE715080F31E}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="18.26171875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>96</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>0.96</v>
+      </c>
+      <c r="G3">
+        <v>156.348306894302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>1.0526315789473601E-2</v>
+      </c>
+      <c r="D4">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G4">
+        <v>106.230905055999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>2.1052631578947299E-2</v>
+      </c>
+      <c r="D5">
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>0.54</v>
+      </c>
+      <c r="G5">
+        <v>101.094986200332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>3.1578947368420998E-2</v>
+      </c>
+      <c r="D6">
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>0.52</v>
+      </c>
+      <c r="G6">
+        <v>98.363173484802203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>4.2105263157894701E-2</v>
+      </c>
+      <c r="D7">
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>0.48</v>
+      </c>
+      <c r="G7">
+        <v>93.032419443130493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>5.2631578947368397E-2</v>
+      </c>
+      <c r="D8">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>0.41</v>
+      </c>
+      <c r="G8">
+        <v>84.000523090362506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>6.3157894736842093E-2</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>0.35</v>
+      </c>
+      <c r="G9">
+        <v>76.381509065627995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>7.3684210526315699E-2</v>
+      </c>
+      <c r="D10">
+        <v>31</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>0.31</v>
+      </c>
+      <c r="G10">
+        <v>70.736005783080998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>96</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>0.96</v>
+      </c>
+      <c r="G13">
+        <v>156.348306894302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>1.0526315789473601E-2</v>
+      </c>
+      <c r="D14">
+        <v>58</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G14">
+        <v>106.230905055999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>2.1052631578947299E-2</v>
+      </c>
+      <c r="D15">
+        <v>54</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>0.54</v>
+      </c>
+      <c r="G15">
+        <v>101.094986200332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>3.1578947368420998E-2</v>
+      </c>
+      <c r="D16">
+        <v>52</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>0.52</v>
+      </c>
+      <c r="G16">
+        <v>98.363173484802203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>4.2105263157894701E-2</v>
+      </c>
+      <c r="D17">
+        <v>48</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>0.48</v>
+      </c>
+      <c r="G17">
+        <v>93.032419443130493</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>5.2631578947368397E-2</v>
+      </c>
+      <c r="D18">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>0.41</v>
+      </c>
+      <c r="G18">
+        <v>84.000523090362506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>6.3157894736842093E-2</v>
+      </c>
+      <c r="D19">
+        <v>35</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>0.35</v>
+      </c>
+      <c r="G19">
+        <v>76.381509065627995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>7.3684210526315699E-2</v>
+      </c>
+      <c r="D20">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>0.31</v>
+      </c>
+      <c r="G20">
+        <v>70.736005783080998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>8.4210526315789402E-2</v>
+      </c>
+      <c r="D21">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>0.23</v>
+      </c>
+      <c r="G21">
+        <v>60.2207190990448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>9.4736842105263105E-2</v>
+      </c>
+      <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>0.19</v>
+      </c>
+      <c r="G22">
+        <v>54.863144874572697</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>0.105263157894736</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>0.15</v>
+      </c>
+      <c r="G23">
+        <v>49.751561641693101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>0.11578947368421</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G24">
+        <v>48.158949375152503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>0.12631578947368399</v>
+      </c>
+      <c r="D25">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>0.13</v>
+      </c>
+      <c r="G25">
+        <v>47.358682870864797</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>0.13684210526315699</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>0.12</v>
+      </c>
+      <c r="G26">
+        <v>46.101258993148797</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>0.14736842105263101</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <v>0.12</v>
+      </c>
+      <c r="G27">
+        <v>46.050325632095301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>0.157894736842105</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>0.12</v>
+      </c>
+      <c r="G28">
+        <v>46.863862037658599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>0.168421052631578</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>0.11</v>
+      </c>
+      <c r="G29">
+        <v>44.665889024734497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>0.17894736842105199</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>0.11</v>
+      </c>
+      <c r="G30">
+        <v>44.583665370941098</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>0.18947368421052599</v>
+      </c>
+      <c r="D31">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>0.11</v>
+      </c>
+      <c r="G31">
+        <v>44.622020244598303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>0.2</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32">
+        <v>0.08</v>
+      </c>
+      <c r="G32">
+        <v>40.623475313186603</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/cifar10-on-ResNet18-add-gaussian-blur-gradient-based-attacks.xlsx
+++ b/results/cifar10-on-ResNet18-add-gaussian-blur-gradient-based-attacks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adzie\code\bandlimited-cnns\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0D6DF6-E373-4E48-9139-E2BDF811D76E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD75BD9-1233-4D06-B51E-047D20EBC5A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="12192" tabRatio="807" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="12192" tabRatio="807" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cifar10-on-ResNet18-add-gaussia" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,15 @@
     <sheet name="graphAdditiveUniformNoise" sheetId="5" r:id="rId5"/>
     <sheet name="GradientSignAttack" sheetId="6" r:id="rId6"/>
     <sheet name="GradientSignRound" sheetId="7" r:id="rId7"/>
+    <sheet name="spacing" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="37">
   <si>
     <t>epsilon</t>
   </si>
@@ -125,6 +127,18 @@
   </si>
   <si>
     <t>GradientSignAttack</t>
+  </si>
+  <si>
+    <t>dataset:  imagenet</t>
+  </si>
+  <si>
+    <t>spacing</t>
+  </si>
+  <si>
+    <t>dataset:  cifar10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sum_difference</t>
   </si>
 </sst>
 </file>
@@ -7705,8 +7719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C460BE-E48D-4A66-A778-EE715080F31E}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8366,4 +8380,362 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7BFA73-9793-4AD5-8067-A07AF1931C66}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>0.9</v>
+      </c>
+      <c r="E3">
+        <v>7.4878764152526802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>0.85</v>
+      </c>
+      <c r="E4">
+        <v>1.8398396968841499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>0.85</v>
+      </c>
+      <c r="E5">
+        <v>1.8233780860900799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>0.85</v>
+      </c>
+      <c r="E6">
+        <v>1.83852338790893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7">
+        <v>1.9674994945526101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>0.65</v>
+      </c>
+      <c r="E8">
+        <v>1.8854739665985101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>0.45</v>
+      </c>
+      <c r="E9">
+        <v>1.8965969085693299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>128</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
+        <v>1.76455473899841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>7.52235531806945</v>
+      </c>
+      <c r="F14">
+        <v>9.9651515483856201E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2.03090095520019</v>
+      </c>
+      <c r="F15">
+        <v>119.672306060791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2.0150196552276598</v>
+      </c>
+      <c r="F16">
+        <v>240.92734432220399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2.0048916339874201</v>
+      </c>
+      <c r="F17">
+        <v>491.96847343444801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>0.95</v>
+      </c>
+      <c r="E18">
+        <v>2.0036807060241699</v>
+      </c>
+      <c r="F18">
+        <v>1013.6589012145899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>0.9</v>
+      </c>
+      <c r="E19">
+        <v>2.0042469501495299</v>
+      </c>
+      <c r="F19">
+        <v>2207.9646835327098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>64</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>0.8</v>
+      </c>
+      <c r="E20">
+        <v>2.0304780006408598</v>
+      </c>
+      <c r="F20">
+        <v>5181.68605041503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>128</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>0.35</v>
+      </c>
+      <c r="E21">
+        <v>1.9716362953186</v>
+      </c>
+      <c r="F21">
+        <v>17603.9998779296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/cifar10-on-ResNet18-add-gaussian-blur-gradient-based-attacks.xlsx
+++ b/results/cifar10-on-ResNet18-add-gaussian-blur-gradient-based-attacks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adzie\code\bandlimited-cnns\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD75BD9-1233-4D06-B51E-047D20EBC5A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C6F0FB-A1F2-4DDF-AE57-EF73FD840168}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="12192" tabRatio="807" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="12192" tabRatio="807" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cifar10-on-ResNet18-add-gaussia" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,16 @@
     <sheet name="GradientSignAttack" sheetId="6" r:id="rId6"/>
     <sheet name="GradientSignRound" sheetId="7" r:id="rId7"/>
     <sheet name="spacing" sheetId="8" r:id="rId8"/>
+    <sheet name="spacing_graph" sheetId="10" r:id="rId9"/>
+    <sheet name="rounder100" sheetId="9" r:id="rId10"/>
+    <sheet name="rounder200" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="43">
   <si>
     <t>epsilon</t>
   </si>
@@ -139,6 +141,24 @@
   </si>
   <si>
     <t xml:space="preserve"> sum_difference</t>
+  </si>
+  <si>
+    <t>dataset: full cifar10</t>
+  </si>
+  <si>
+    <t>resolution (# of units per color channel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avg diff per pixel</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>cuda is available</t>
+  </si>
+  <si>
+    <t>dataset:  cifar10 100 adversarial examples</t>
   </si>
 </sst>
 </file>
@@ -2224,6 +2244,1699 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accuracy for resolution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t> (full cifar10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Accuracy for resolution</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>spacing_graph!$G$2:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.615384615384617</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.214285714285715</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.9375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.421052631578947</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.590909090909092</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.086956521739131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.8076923076923084</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.1071428571428577</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.7931034482758612</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.2258064516129039</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.96875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.7272727272727275</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.8918918918918921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.7105263157894735</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>spacing_graph!$D$2:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0.93479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93269999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93179999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92920000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92769999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92769999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92689999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92469999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.92279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.92059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.92059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.91369999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.91369999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.91369999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.90339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.90339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.90339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.88890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.88890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.88890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.88890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.88890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.87350000000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.87350000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D374-4639-B428-099CA781C7F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="590526656"/>
+        <c:axId val="593744880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="590526656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>resulution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> (# of units per color channel, max is 255)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593744880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="593744880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Test</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590526656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of correct examples per 100 adversarial </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>CIFAR-10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>images after rounding</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10956714785651793"/>
+          <c:y val="0.25083333333333335"/>
+          <c:w val="0.84087729658792654"/>
+          <c:h val="0.54359580052493439"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Number of correct examples per 100 adversarial images after rounding</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>rounder100!$G$4:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.9375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.96875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.984375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9921875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>rounder100!$D$4:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B8C-4EDE-B290-4639BC0E7CB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="591789184"/>
+        <c:axId val="593716592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="591789184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="255"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Rounding resolution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> (~254 is max, 1 is min)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593716592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="593716592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Test</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> accuracy (1.0 is max)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591789184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of correct examples per 100 adversarial </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>CIFAR-10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>images after rounding</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10956714785651793"/>
+          <c:y val="0.25083333333333335"/>
+          <c:w val="0.84087729658792654"/>
+          <c:h val="0.54359580052493439"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Number of correct examples per 100 adversarial images after rounding</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>rounder200!$G$4:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.9375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.96875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.984375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9921875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>rounder200!$D$4:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-047F-4D18-B6E3-733138CFD80E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="591789184"/>
+        <c:axId val="593716592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="591789184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="255"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Rounding resolution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> (~254 is max, 1 is min)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593716592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="593716592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Test</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> accuracy (1.0 is max)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591789184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2304,6 +4017,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2821,6 +4654,1554 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3402,6 +6783,131 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>453390</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1198A4-116E-4F63-9D24-1E3BB381CF3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>262890</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11574396-6EBE-4564-B9A5-E0DCEE15D8FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>262890</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{259CD6FA-71D8-4DFB-8C87-F5FD99D1BDF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3857,6 +7363,538 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2227038-22A3-482B-848A-467291EBC53F}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="4" max="4" width="27.3671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>12.758206367492599</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>0.42</v>
+      </c>
+      <c r="E5">
+        <v>12.894332408905001</v>
+      </c>
+      <c r="F5">
+        <v>9.2496886655377803E-4</v>
+      </c>
+      <c r="G5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>0.37</v>
+      </c>
+      <c r="E6">
+        <v>12.772479772567699</v>
+      </c>
+      <c r="F6">
+        <v>1.8719465611502499E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G5:G12" si="0">255/A6</f>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>0.47</v>
+      </c>
+      <c r="E7">
+        <v>12.786513805389401</v>
+      </c>
+      <c r="F7">
+        <v>3.7723644155387998E-3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>63.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>0.65</v>
+      </c>
+      <c r="E8">
+        <v>12.734024286270101</v>
+      </c>
+      <c r="F8">
+        <v>7.6724882101795299E-3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>31.875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E9">
+        <v>12.7308142185211</v>
+      </c>
+      <c r="F9">
+        <v>1.58316048878865E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>15.9375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>0.46</v>
+      </c>
+      <c r="E10">
+        <v>12.723404407501199</v>
+      </c>
+      <c r="F10">
+        <v>3.37755696258197E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>7.96875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>0.35</v>
+      </c>
+      <c r="E11">
+        <v>12.7474586963653</v>
+      </c>
+      <c r="F11">
+        <v>8.0822105937016497E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>3.984375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>128</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>0.22</v>
+      </c>
+      <c r="E12">
+        <v>12.733118295669501</v>
+      </c>
+      <c r="F12">
+        <v>0.27778920266311602</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1.9921875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115AD103-372D-42BD-96B8-3C24C4164EBA}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="4" max="4" width="27.3671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>12.758206367492599</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>91</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="E5">
+        <v>26.286468029022199</v>
+      </c>
+      <c r="F5">
+        <v>8.9974202306620902E-4</v>
+      </c>
+      <c r="G5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>85</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E6">
+        <v>26.279933929443299</v>
+      </c>
+      <c r="F6">
+        <v>1.89926665353899E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G13" si="0">255/A6</f>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>92</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>0.46</v>
+      </c>
+      <c r="E7">
+        <v>26.276631832122799</v>
+      </c>
+      <c r="F7">
+        <v>3.8248773788412301E-3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>63.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>94</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>0.47</v>
+      </c>
+      <c r="E8">
+        <v>26.252092123031598</v>
+      </c>
+      <c r="F8">
+        <v>7.7735488784189E-3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>31.875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="E9">
+        <v>26.3105919361114</v>
+      </c>
+      <c r="F9">
+        <v>1.6011443085347601E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>15.9375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>97</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="E10">
+        <v>25.335989713668798</v>
+      </c>
+      <c r="F10">
+        <v>3.4427815880626399E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>7.96875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>62</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <v>0.31</v>
+      </c>
+      <c r="E11">
+        <v>26.311105489730799</v>
+      </c>
+      <c r="F11">
+        <v>8.1397118220726594E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>3.984375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>128</v>
+      </c>
+      <c r="B12">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>0.255</v>
+      </c>
+      <c r="E12">
+        <v>26.295710802078201</v>
+      </c>
+      <c r="F12">
+        <v>0.27681242088476798</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1.9921875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F2"/>
@@ -8384,358 +12422,2288 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7BFA73-9793-4AD5-8067-A07AF1931C66}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:G59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="4" max="4" width="15.41796875" customWidth="1"/>
+    <col min="6" max="6" width="15.1015625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>0.9</v>
+      </c>
+      <c r="E3">
+        <v>7.4878764152526802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>0.85</v>
+      </c>
+      <c r="E4">
+        <v>1.8398396968841499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>0.85</v>
+      </c>
+      <c r="E5">
+        <v>1.8233780860900799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>0.85</v>
+      </c>
+      <c r="E6">
+        <v>1.83852338790893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7">
+        <v>1.9674994945526101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>0.65</v>
+      </c>
+      <c r="E8">
+        <v>1.8854739665985101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>0.45</v>
+      </c>
+      <c r="E9">
+        <v>1.8965969085693299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>128</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
+        <v>1.76455473899841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>7.52235531806945</v>
+      </c>
+      <c r="F14">
+        <v>9.9651515483856201E-4</v>
+      </c>
+      <c r="G14">
+        <f>255/A14</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2.03090095520019</v>
+      </c>
+      <c r="F15">
+        <v>119.672306060791</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G21" si="0">255/A15</f>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2.0150196552276598</v>
+      </c>
+      <c r="F16">
+        <v>240.92734432220399</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>63.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2.0048916339874201</v>
+      </c>
+      <c r="F17">
+        <v>491.96847343444801</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>31.875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>0.95</v>
+      </c>
+      <c r="E18">
+        <v>2.0036807060241699</v>
+      </c>
+      <c r="F18">
+        <v>1013.6589012145899</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>15.9375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>0.9</v>
+      </c>
+      <c r="E19">
+        <v>2.0042469501495299</v>
+      </c>
+      <c r="F19">
+        <v>2207.9646835327098</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>7.96875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>64</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>0.8</v>
+      </c>
+      <c r="E20">
+        <v>2.0304780006408598</v>
+      </c>
+      <c r="F20">
+        <v>5181.68605041503</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>3.984375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>128</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>0.35</v>
+      </c>
+      <c r="E21">
+        <v>1.9716362953186</v>
+      </c>
+      <c r="F21">
+        <v>17603.9998779296</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1.9921875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>9348</v>
+      </c>
+      <c r="C25">
+        <v>10000</v>
+      </c>
+      <c r="D25">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="E25">
+        <v>674.67005109786896</v>
+      </c>
+      <c r="F25">
+        <v>0.54717159084975697</v>
+      </c>
+      <c r="G25">
+        <f>255/A25</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>9344</v>
+      </c>
+      <c r="C26">
+        <v>10000</v>
+      </c>
+      <c r="D26">
+        <v>0.93440000000000001</v>
+      </c>
+      <c r="E26">
+        <v>686.64883780479397</v>
+      </c>
+      <c r="F26">
+        <v>59984.5808953046</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:G59" si="1">255/A26</f>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>9347</v>
+      </c>
+      <c r="C27">
+        <v>10000</v>
+      </c>
+      <c r="D27">
+        <v>0.93469999999999998</v>
+      </c>
+      <c r="E27">
+        <v>672.59557795524597</v>
+      </c>
+      <c r="F27">
+        <v>79640.300737857804</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>9341</v>
+      </c>
+      <c r="C28">
+        <v>10000</v>
+      </c>
+      <c r="D28">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="E28">
+        <v>683.80497837066605</v>
+      </c>
+      <c r="F28">
+        <v>120783.770219326</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>63.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>9334</v>
+      </c>
+      <c r="C29">
+        <v>10000</v>
+      </c>
+      <c r="D29">
+        <v>0.93340000000000001</v>
+      </c>
+      <c r="E29">
+        <v>685.55571293830803</v>
+      </c>
+      <c r="F29">
+        <v>143222.66134333599</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>9341</v>
+      </c>
+      <c r="C30">
+        <v>10000</v>
+      </c>
+      <c r="D30">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="E30">
+        <v>672.26396131515503</v>
+      </c>
+      <c r="F30">
+        <v>181001.647108554</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>9327</v>
+      </c>
+      <c r="C31">
+        <v>10000</v>
+      </c>
+      <c r="D31">
+        <v>0.93269999999999997</v>
+      </c>
+      <c r="E31">
+        <v>674.50255799293495</v>
+      </c>
+      <c r="F31">
+        <v>211014.268609046</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>36.428571428571431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>9326</v>
+      </c>
+      <c r="C32">
+        <v>10000</v>
+      </c>
+      <c r="D32">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="E32">
+        <v>672.47319746017399</v>
+      </c>
+      <c r="F32">
+        <v>244859.67620134301</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>31.875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>9326</v>
+      </c>
+      <c r="C33">
+        <v>10000</v>
+      </c>
+      <c r="D33">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="E33">
+        <v>670.58135867118801</v>
+      </c>
+      <c r="F33">
+        <v>271057.801754474</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>28.333333333333332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>9331</v>
+      </c>
+      <c r="C34">
+        <v>10000</v>
+      </c>
+      <c r="D34">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="E34">
+        <v>669.16909933090199</v>
+      </c>
+      <c r="F34">
+        <v>303078.12916374201</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>9318</v>
+      </c>
+      <c r="C35">
+        <v>10000</v>
+      </c>
+      <c r="D35">
+        <v>0.93179999999999996</v>
+      </c>
+      <c r="E35">
+        <v>682.30380201339699</v>
+      </c>
+      <c r="F35">
+        <v>329755.424171447</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>23.181818181818183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>9320</v>
+      </c>
+      <c r="C36">
+        <v>10000</v>
+      </c>
+      <c r="D36">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="E36">
+        <v>687.68533349037102</v>
+      </c>
+      <c r="F36">
+        <v>360956.45014238299</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>9292</v>
+      </c>
+      <c r="C37">
+        <v>10000</v>
+      </c>
+      <c r="D37">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="E37">
+        <v>679.66270542144696</v>
+      </c>
+      <c r="F37">
+        <v>398679.36310482002</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>19.615384615384617</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <v>9295</v>
+      </c>
+      <c r="C38">
+        <v>10000</v>
+      </c>
+      <c r="D38">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="E38">
+        <v>678.27681922912598</v>
+      </c>
+      <c r="F38">
+        <v>420852.362040042</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>18.214285714285715</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>9304</v>
+      </c>
+      <c r="C39">
+        <v>10000</v>
+      </c>
+      <c r="D39">
+        <v>0.9304</v>
+      </c>
+      <c r="E39">
+        <v>681.74940419197003</v>
+      </c>
+      <c r="F39">
+        <v>443548.62426042499</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>9277</v>
+      </c>
+      <c r="C40">
+        <v>10000</v>
+      </c>
+      <c r="D40">
+        <v>0.92769999999999997</v>
+      </c>
+      <c r="E40">
+        <v>679.453478336334</v>
+      </c>
+      <c r="F40">
+        <v>502666.621774673</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>15.9375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>17</v>
+      </c>
+      <c r="B41">
+        <v>9277</v>
+      </c>
+      <c r="C41">
+        <v>10000</v>
+      </c>
+      <c r="D41">
+        <v>0.92769999999999997</v>
+      </c>
+      <c r="E41">
+        <v>670.699592351913</v>
+      </c>
+      <c r="F41">
+        <v>502666.621774673</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>9269</v>
+      </c>
+      <c r="C42">
+        <v>10000</v>
+      </c>
+      <c r="D42">
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="E42">
+        <v>686.49207496642998</v>
+      </c>
+      <c r="F42">
+        <v>540810.55720329203</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>14.166666666666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>9247</v>
+      </c>
+      <c r="C43">
+        <v>10000</v>
+      </c>
+      <c r="D43">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="E43">
+        <v>686.16322159767105</v>
+      </c>
+      <c r="F43">
+        <v>582215.58235931396</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>13.421052631578947</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>9228</v>
+      </c>
+      <c r="C44">
+        <v>10000</v>
+      </c>
+      <c r="D44">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="E44">
+        <v>666.36944746971096</v>
+      </c>
+      <c r="F44">
+        <v>630929.13811683597</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>9228</v>
+      </c>
+      <c r="C45">
+        <v>10000</v>
+      </c>
+      <c r="D45">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="E45">
+        <v>675.88555526733398</v>
+      </c>
+      <c r="F45">
+        <v>630929.13811683597</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>12.142857142857142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>9206</v>
+      </c>
+      <c r="C46">
+        <v>10000</v>
+      </c>
+      <c r="D46">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="E46">
+        <v>672.39956164360001</v>
+      </c>
+      <c r="F46">
+        <v>687969.39728355396</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>11.590909090909092</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>9206</v>
+      </c>
+      <c r="C47">
+        <v>10000</v>
+      </c>
+      <c r="D47">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="E47">
+        <v>673.91579651832501</v>
+      </c>
+      <c r="F47">
+        <v>687969.39728355396</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>11.086956521739131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>24</v>
+      </c>
+      <c r="B48">
+        <v>9190</v>
+      </c>
+      <c r="C48">
+        <v>10000</v>
+      </c>
+      <c r="D48">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E48">
+        <v>672.94677019119194</v>
+      </c>
+      <c r="F48">
+        <v>756845.185369491</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>10.625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>25</v>
+      </c>
+      <c r="B49">
+        <v>9190</v>
+      </c>
+      <c r="C49">
+        <v>10000</v>
+      </c>
+      <c r="D49">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E49">
+        <v>670.36089897155705</v>
+      </c>
+      <c r="F49">
+        <v>756845.185369491</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>9137</v>
+      </c>
+      <c r="C50">
+        <v>10000</v>
+      </c>
+      <c r="D50">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="E50">
+        <v>665.02222204208294</v>
+      </c>
+      <c r="F50">
+        <v>840247.85996437003</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>9.8076923076923084</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>9137</v>
+      </c>
+      <c r="C51">
+        <v>10000</v>
+      </c>
+      <c r="D51">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="E51">
+        <v>685.61701536178498</v>
+      </c>
+      <c r="F51">
+        <v>840247.85996437003</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>9.4444444444444446</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>28</v>
+      </c>
+      <c r="B52">
+        <v>9137</v>
+      </c>
+      <c r="C52">
+        <v>10000</v>
+      </c>
+      <c r="D52">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="E52">
+        <v>697.80647969245899</v>
+      </c>
+      <c r="F52">
+        <v>840247.85996437003</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>9.1071428571428577</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>29</v>
+      </c>
+      <c r="B53">
+        <v>9034</v>
+      </c>
+      <c r="C53">
+        <v>10000</v>
+      </c>
+      <c r="D53">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="E53">
+        <v>958.17868542671204</v>
+      </c>
+      <c r="F53">
+        <v>945762.74523639597</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>8.7931034482758612</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>30</v>
+      </c>
+      <c r="B54">
+        <v>9034</v>
+      </c>
+      <c r="C54">
+        <v>10000</v>
+      </c>
+      <c r="D54">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="E54">
+        <v>686.01244974136296</v>
+      </c>
+      <c r="F54">
+        <v>945762.74523639597</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>31</v>
+      </c>
+      <c r="B55">
+        <v>9034</v>
+      </c>
+      <c r="C55">
+        <v>10000</v>
+      </c>
+      <c r="D55">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="E55">
+        <v>1117.47534942626</v>
+      </c>
+      <c r="F55">
+        <v>945762.74523639597</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>8.2258064516129039</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
+        <v>32</v>
+      </c>
+      <c r="B56">
+        <v>8889</v>
+      </c>
+      <c r="C56">
+        <v>10000</v>
+      </c>
+      <c r="D56">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="E56">
+        <v>664.37212824821404</v>
+      </c>
+      <c r="F56">
+        <v>1081492.8872814099</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>7.96875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>33</v>
+      </c>
+      <c r="B57">
+        <v>8889</v>
+      </c>
+      <c r="C57">
+        <v>10000</v>
+      </c>
+      <c r="D57">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="E57">
+        <v>665.86931705474797</v>
+      </c>
+      <c r="F57">
+        <v>1081492.8872814099</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>7.7272727272727275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>34</v>
+      </c>
+      <c r="B58">
+        <v>8889</v>
+      </c>
+      <c r="C58">
+        <v>10000</v>
+      </c>
+      <c r="D58">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="E58">
+        <v>665.25735616683903</v>
+      </c>
+      <c r="F58">
+        <v>1081492.8872814099</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>35</v>
+      </c>
+      <c r="B59">
+        <v>8889</v>
+      </c>
+      <c r="C59">
+        <v>10000</v>
+      </c>
+      <c r="D59">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="E59">
+        <v>948.57187271118096</v>
+      </c>
+      <c r="F59">
+        <v>1081492.8872814099</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>7.2857142857142856</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499C8CF7-04DD-471A-909E-CCD411183114}">
+  <dimension ref="A1:G42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>9348</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
+      </c>
+      <c r="D2">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="E2">
+        <v>674.67005109786896</v>
+      </c>
+      <c r="F2">
+        <v>0.54717159084975697</v>
+      </c>
+      <c r="G2">
+        <f>255/A2</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>9344</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="D3">
-        <v>0.9</v>
+        <v>0.93440000000000001</v>
       </c>
       <c r="E3">
-        <v>7.4878764152526802</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>686.64883780479397</v>
+      </c>
+      <c r="F3">
+        <v>59984.5808953046</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G42" si="0">255/A3</f>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>9347</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="D4">
-        <v>0.85</v>
+        <v>0.93469999999999998</v>
       </c>
       <c r="E4">
-        <v>1.8398396968841499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>672.59557795524597</v>
+      </c>
+      <c r="F4">
+        <v>79640.300737857804</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>9341</v>
+      </c>
+      <c r="C5">
+        <v>10000</v>
+      </c>
+      <c r="D5">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="E5">
+        <v>683.80497837066605</v>
+      </c>
+      <c r="F5">
+        <v>120783.770219326</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>63.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>9334</v>
+      </c>
+      <c r="C6">
+        <v>10000</v>
+      </c>
+      <c r="D6">
+        <v>0.93340000000000001</v>
+      </c>
+      <c r="E6">
+        <v>685.55571293830803</v>
+      </c>
+      <c r="F6">
+        <v>143222.66134333599</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>9341</v>
+      </c>
+      <c r="C7">
+        <v>10000</v>
+      </c>
+      <c r="D7">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="E7">
+        <v>672.26396131515503</v>
+      </c>
+      <c r="F7">
+        <v>181001.647108554</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9327</v>
+      </c>
+      <c r="C8">
+        <v>10000</v>
+      </c>
+      <c r="D8">
+        <v>0.93269999999999997</v>
+      </c>
+      <c r="E8">
+        <v>674.50255799293495</v>
+      </c>
+      <c r="F8">
+        <v>211014.268609046</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>36.428571428571431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>9326</v>
+      </c>
+      <c r="C9">
+        <v>10000</v>
+      </c>
+      <c r="D9">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="E9">
+        <v>672.47319746017399</v>
+      </c>
+      <c r="F9">
+        <v>244859.67620134301</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>31.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9326</v>
+      </c>
+      <c r="C10">
+        <v>10000</v>
+      </c>
+      <c r="D10">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="E10">
+        <v>670.58135867118801</v>
+      </c>
+      <c r="F10">
+        <v>271057.801754474</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>28.333333333333332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>9331</v>
+      </c>
+      <c r="C11">
+        <v>10000</v>
+      </c>
+      <c r="D11">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="E11">
+        <v>669.16909933090199</v>
+      </c>
+      <c r="F11">
+        <v>303078.12916374201</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>9318</v>
+      </c>
+      <c r="C12">
+        <v>10000</v>
+      </c>
+      <c r="D12">
+        <v>0.93179999999999996</v>
+      </c>
+      <c r="E12">
+        <v>682.30380201339699</v>
+      </c>
+      <c r="F12">
+        <v>329755.424171447</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>23.181818181818183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>9320</v>
+      </c>
+      <c r="C13">
+        <v>10000</v>
+      </c>
+      <c r="D13">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="E13">
+        <v>687.68533349037102</v>
+      </c>
+      <c r="F13">
+        <v>360956.45014238299</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>9292</v>
+      </c>
+      <c r="C14">
+        <v>10000</v>
+      </c>
+      <c r="D14">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="E14">
+        <v>679.66270542144696</v>
+      </c>
+      <c r="F14">
+        <v>398679.36310482002</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>19.615384615384617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>9295</v>
+      </c>
+      <c r="C15">
+        <v>10000</v>
+      </c>
+      <c r="D15">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="E15">
+        <v>678.27681922912598</v>
+      </c>
+      <c r="F15">
+        <v>420852.362040042</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>18.214285714285715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>9304</v>
+      </c>
+      <c r="C16">
+        <v>10000</v>
+      </c>
+      <c r="D16">
+        <v>0.9304</v>
+      </c>
+      <c r="E16">
+        <v>681.74940419197003</v>
+      </c>
+      <c r="F16">
+        <v>443548.62426042499</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C5">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>9277</v>
+      </c>
+      <c r="C17">
+        <v>10000</v>
+      </c>
+      <c r="D17">
+        <v>0.92769999999999997</v>
+      </c>
+      <c r="E17">
+        <v>679.453478336334</v>
+      </c>
+      <c r="F17">
+        <v>502666.621774673</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>15.9375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>9277</v>
+      </c>
+      <c r="C18">
+        <v>10000</v>
+      </c>
+      <c r="D18">
+        <v>0.92769999999999997</v>
+      </c>
+      <c r="E18">
+        <v>670.699592351913</v>
+      </c>
+      <c r="F18">
+        <v>502666.621774673</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>9269</v>
+      </c>
+      <c r="C19">
+        <v>10000</v>
+      </c>
+      <c r="D19">
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="E19">
+        <v>686.49207496642998</v>
+      </c>
+      <c r="F19">
+        <v>540810.55720329203</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>14.166666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>9247</v>
+      </c>
+      <c r="C20">
+        <v>10000</v>
+      </c>
+      <c r="D20">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="E20">
+        <v>686.16322159767105</v>
+      </c>
+      <c r="F20">
+        <v>582215.58235931396</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>13.421052631578947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="D5">
-        <v>0.85</v>
-      </c>
-      <c r="E5">
-        <v>1.8233780860900799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>0.85</v>
-      </c>
-      <c r="E6">
-        <v>1.83852338790893</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>0.8</v>
-      </c>
-      <c r="E7">
-        <v>1.9674994945526101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
+      <c r="B21">
+        <v>9228</v>
+      </c>
+      <c r="C21">
+        <v>10000</v>
+      </c>
+      <c r="D21">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="E21">
+        <v>666.36944746971096</v>
+      </c>
+      <c r="F21">
+        <v>630929.13811683597</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>9228</v>
+      </c>
+      <c r="C22">
+        <v>10000</v>
+      </c>
+      <c r="D22">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="E22">
+        <v>675.88555526733398</v>
+      </c>
+      <c r="F22">
+        <v>630929.13811683597</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>12.142857142857142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>9206</v>
+      </c>
+      <c r="C23">
+        <v>10000</v>
+      </c>
+      <c r="D23">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="E23">
+        <v>672.39956164360001</v>
+      </c>
+      <c r="F23">
+        <v>687969.39728355396</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>11.590909090909092</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>9206</v>
+      </c>
+      <c r="C24">
+        <v>10000</v>
+      </c>
+      <c r="D24">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="E24">
+        <v>673.91579651832501</v>
+      </c>
+      <c r="F24">
+        <v>687969.39728355396</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>11.086956521739131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>9190</v>
+      </c>
+      <c r="C25">
+        <v>10000</v>
+      </c>
+      <c r="D25">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E25">
+        <v>672.94677019119194</v>
+      </c>
+      <c r="F25">
+        <v>756845.185369491</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>10.625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>9190</v>
+      </c>
+      <c r="C26">
+        <v>10000</v>
+      </c>
+      <c r="D26">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E26">
+        <v>670.36089897155705</v>
+      </c>
+      <c r="F26">
+        <v>756845.185369491</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>9137</v>
+      </c>
+      <c r="C27">
+        <v>10000</v>
+      </c>
+      <c r="D27">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="E27">
+        <v>665.02222204208294</v>
+      </c>
+      <c r="F27">
+        <v>840247.85996437003</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>9.8076923076923084</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>9137</v>
+      </c>
+      <c r="C28">
+        <v>10000</v>
+      </c>
+      <c r="D28">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="E28">
+        <v>685.61701536178498</v>
+      </c>
+      <c r="F28">
+        <v>840247.85996437003</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>9.4444444444444446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>9137</v>
+      </c>
+      <c r="C29">
+        <v>10000</v>
+      </c>
+      <c r="D29">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="E29">
+        <v>697.80647969245899</v>
+      </c>
+      <c r="F29">
+        <v>840247.85996437003</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>9.1071428571428577</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>9034</v>
+      </c>
+      <c r="C30">
+        <v>10000</v>
+      </c>
+      <c r="D30">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="E30">
+        <v>958.17868542671204</v>
+      </c>
+      <c r="F30">
+        <v>945762.74523639597</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>8.7931034482758612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>9034</v>
+      </c>
+      <c r="C31">
+        <v>10000</v>
+      </c>
+      <c r="D31">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="E31">
+        <v>686.01244974136296</v>
+      </c>
+      <c r="F31">
+        <v>945762.74523639597</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>9034</v>
+      </c>
+      <c r="C32">
+        <v>10000</v>
+      </c>
+      <c r="D32">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="E32">
+        <v>1117.47534942626</v>
+      </c>
+      <c r="F32">
+        <v>945762.74523639597</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>8.2258064516129039</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B8">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>0.65</v>
-      </c>
-      <c r="E8">
-        <v>1.8854739665985101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>64</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>0.45</v>
-      </c>
-      <c r="E9">
-        <v>1.8965969085693299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>128</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>0.1</v>
-      </c>
-      <c r="E10">
-        <v>1.76455473899841</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="B33">
+        <v>8889</v>
+      </c>
+      <c r="C33">
+        <v>10000</v>
+      </c>
+      <c r="D33">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="E33">
+        <v>664.37212824821404</v>
+      </c>
+      <c r="F33">
+        <v>1081492.8872814099</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>7.96875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>8889</v>
+      </c>
+      <c r="C34">
+        <v>10000</v>
+      </c>
+      <c r="D34">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="E34">
+        <v>665.86931705474797</v>
+      </c>
+      <c r="F34">
+        <v>1081492.8872814099</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>7.7272727272727275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>8889</v>
+      </c>
+      <c r="C35">
+        <v>10000</v>
+      </c>
+      <c r="D35">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="E35">
+        <v>665.25735616683903</v>
+      </c>
+      <c r="F35">
+        <v>1081492.8872814099</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="B36">
+        <v>8889</v>
+      </c>
+      <c r="C36">
+        <v>10000</v>
+      </c>
+      <c r="D36">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="E36">
+        <v>948.57187271118096</v>
+      </c>
+      <c r="F36">
+        <v>1081492.8872814099</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>7.2857142857142856</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>7.52235531806945</v>
-      </c>
-      <c r="F14">
-        <v>9.9651515483856201E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>2.03090095520019</v>
-      </c>
-      <c r="F15">
-        <v>119.672306060791</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>2.0150196552276598</v>
-      </c>
-      <c r="F16">
-        <v>240.92734432220399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>2.0048916339874201</v>
-      </c>
-      <c r="F17">
-        <v>491.96847343444801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>19</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>0.95</v>
-      </c>
-      <c r="E18">
-        <v>2.0036807060241699</v>
-      </c>
-      <c r="F18">
-        <v>1013.6589012145899</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <v>32</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>0.9</v>
-      </c>
-      <c r="E19">
-        <v>2.0042469501495299</v>
-      </c>
-      <c r="F19">
-        <v>2207.9646835327098</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <v>64</v>
-      </c>
-      <c r="B20">
-        <v>16</v>
-      </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>0.8</v>
-      </c>
-      <c r="E20">
-        <v>2.0304780006408598</v>
-      </c>
-      <c r="F20">
-        <v>5181.68605041503</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>128</v>
-      </c>
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>0.35</v>
-      </c>
-      <c r="E21">
-        <v>1.9716362953186</v>
-      </c>
-      <c r="F21">
-        <v>17603.9998779296</v>
+      <c r="B37">
+        <v>8889</v>
+      </c>
+      <c r="C37">
+        <v>10000</v>
+      </c>
+      <c r="D37">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="E37">
+        <v>1168.64252805709</v>
+      </c>
+      <c r="F37">
+        <v>1081492.8872814099</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>7.083333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>8735</v>
+      </c>
+      <c r="C38">
+        <v>10000</v>
+      </c>
+      <c r="D38">
+        <v>0.87350000000000005</v>
+      </c>
+      <c r="E38">
+        <v>945.34153461456299</v>
+      </c>
+      <c r="F38">
+        <v>1259892.8243598901</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>6.8918918918918921</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>8735</v>
+      </c>
+      <c r="C39">
+        <v>10000</v>
+      </c>
+      <c r="D39">
+        <v>0.87350000000000005</v>
+      </c>
+      <c r="E39">
+        <v>994.15785241127003</v>
+      </c>
+      <c r="F39">
+        <v>1259892.8243598901</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>6.7105263157894735</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>8735</v>
+      </c>
+      <c r="C40">
+        <v>10000</v>
+      </c>
+      <c r="D40">
+        <v>0.87350000000000005</v>
+      </c>
+      <c r="E40">
+        <v>1276.4491860866499</v>
+      </c>
+      <c r="F40">
+        <v>1259892.8243598901</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>6.5384615384615383</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>8735</v>
+      </c>
+      <c r="C41">
+        <v>10000</v>
+      </c>
+      <c r="D41">
+        <v>0.87350000000000005</v>
+      </c>
+      <c r="E41">
+        <v>942.39400076866104</v>
+      </c>
+      <c r="F41">
+        <v>1259892.8243598901</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>6.375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>8735</v>
+      </c>
+      <c r="C42">
+        <v>10000</v>
+      </c>
+      <c r="D42">
+        <v>0.87350000000000005</v>
+      </c>
+      <c r="E42">
+        <v>696.84353041648797</v>
+      </c>
+      <c r="F42">
+        <v>1259892.8243598901</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>6.2195121951219514</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/cifar10-on-ResNet18-add-gaussian-blur-gradient-based-attacks.xlsx
+++ b/results/cifar10-on-ResNet18-add-gaussian-blur-gradient-based-attacks.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adzie\code\bandlimited-cnns\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C6F0FB-A1F2-4DDF-AE57-EF73FD840168}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED219CBE-F3FD-4173-8152-4FCBAE387FB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="12192" tabRatio="807" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="12192" tabRatio="807" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cifar10-on-ResNet18-add-gaussia" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,17 @@
     <sheet name="spacing" sheetId="8" r:id="rId8"/>
     <sheet name="spacing_graph" sheetId="10" r:id="rId9"/>
     <sheet name="rounder100" sheetId="9" r:id="rId10"/>
-    <sheet name="rounder200" sheetId="12" r:id="rId11"/>
+    <sheet name="cifar10subpixelDiff" sheetId="13" r:id="rId11"/>
+    <sheet name="cifar10subpixelDiff-2" sheetId="15" r:id="rId12"/>
+    <sheet name="imagenetSubpixelDiff" sheetId="14" r:id="rId13"/>
+    <sheet name="rounder200" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="51">
   <si>
     <t>epsilon</t>
   </si>
@@ -159,6 +162,30 @@
   </si>
   <si>
     <t>dataset:  cifar10 100 adversarial examples</t>
+  </si>
+  <si>
+    <t>batch index</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>diff &lt; 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> False </t>
+  </si>
+  <si>
+    <t>diff &lt; 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> False</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> True </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> True</t>
   </si>
 </sst>
 </file>
@@ -6844,16 +6871,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>262890</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7221,6 +7248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7365,28 +7393,30 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2227038-22A3-482B-848A-467291EBC53F}">
-  <dimension ref="A1:G12"/>
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="4" max="4" width="27.3671875" customWidth="1"/>
+    <col min="6" max="6" width="22.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -7409,7 +7439,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>0</v>
       </c>
@@ -7432,7 +7462,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7454,8 +7484,12 @@
       <c r="G5">
         <v>254</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H5">
+        <f>255*F5</f>
+        <v>0.2358670609712134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7475,11 +7509,15 @@
         <v>1.8719465611502499E-3</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G5:G12" si="0">255/A6</f>
+        <f t="shared" ref="G6:G12" si="0">255/A6</f>
         <v>127.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H6">
+        <f t="shared" ref="H6:H12" si="1">255*F6</f>
+        <v>0.47734637309331374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>4</v>
       </c>
@@ -7502,8 +7540,12 @@
         <f t="shared" si="0"/>
         <v>63.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0.9619529259623939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>8</v>
       </c>
@@ -7526,8 +7568,12 @@
         <f t="shared" si="0"/>
         <v>31.875</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1.9564844935957801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>16</v>
       </c>
@@ -7550,8 +7596,12 @@
         <f t="shared" si="0"/>
         <v>15.9375</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>4.0370592464110571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>32</v>
       </c>
@@ -7574,8 +7624,12 @@
         <f t="shared" si="0"/>
         <v>7.96875</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>8.6127702545840243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>64</v>
       </c>
@@ -7598,8 +7652,12 @@
         <f t="shared" si="0"/>
         <v>3.984375</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>20.609637013939206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>128</v>
       </c>
@@ -7621,6 +7679,10 @@
       <c r="G12">
         <f t="shared" si="0"/>
         <v>1.9921875</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>70.836246679094586</v>
       </c>
     </row>
   </sheetData>
@@ -7630,7 +7692,9491 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1501D3EE-0EE0-4695-9021-425D5D27BADD}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:J95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J106" sqref="J106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>38</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>39</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>40</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>47</v>
+      </c>
+      <c r="J41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <v>42</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>43</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>47</v>
+      </c>
+      <c r="J43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44">
+        <v>44</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>45</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <v>46</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>47</v>
+      </c>
+      <c r="J46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <v>48</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>50</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>47</v>
+      </c>
+      <c r="J48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>51</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>47</v>
+      </c>
+      <c r="J49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <v>53</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>47</v>
+      </c>
+      <c r="J50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51">
+        <v>22</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>54</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>47</v>
+      </c>
+      <c r="J51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <v>55</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>47</v>
+      </c>
+      <c r="J52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <v>56</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>47</v>
+      </c>
+      <c r="J53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <v>57</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>49</v>
+      </c>
+      <c r="I54" t="s">
+        <v>47</v>
+      </c>
+      <c r="J54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55">
+        <v>28</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <v>60</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>47</v>
+      </c>
+      <c r="J55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56">
+        <v>29</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56">
+        <v>61</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>49</v>
+      </c>
+      <c r="I56" t="s">
+        <v>47</v>
+      </c>
+      <c r="J56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57">
+        <v>31</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57">
+        <v>63</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58">
+        <v>64</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>47</v>
+      </c>
+      <c r="J58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59">
+        <v>65</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>47</v>
+      </c>
+      <c r="J59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60">
+        <v>66</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>49</v>
+      </c>
+      <c r="I60" t="s">
+        <v>47</v>
+      </c>
+      <c r="J60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61">
+        <v>67</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>47</v>
+      </c>
+      <c r="J61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62">
+        <v>68</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>47</v>
+      </c>
+      <c r="J62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>69</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>47</v>
+      </c>
+      <c r="J63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64">
+        <v>70</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>49</v>
+      </c>
+      <c r="I64" t="s">
+        <v>47</v>
+      </c>
+      <c r="J64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <v>71</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>49</v>
+      </c>
+      <c r="I65" t="s">
+        <v>47</v>
+      </c>
+      <c r="J65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66">
+        <v>72</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>47</v>
+      </c>
+      <c r="J66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67">
+        <v>73</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>47</v>
+      </c>
+      <c r="J67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68">
+        <v>74</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>49</v>
+      </c>
+      <c r="I68" t="s">
+        <v>47</v>
+      </c>
+      <c r="J68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69">
+        <v>75</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>47</v>
+      </c>
+      <c r="J69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70">
+        <v>76</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>47</v>
+      </c>
+      <c r="J70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71">
+        <v>77</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>47</v>
+      </c>
+      <c r="J71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>49</v>
+      </c>
+      <c r="I72" t="s">
+        <v>47</v>
+      </c>
+      <c r="J72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>47</v>
+      </c>
+      <c r="J73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74">
+        <v>16</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74">
+        <v>80</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>47</v>
+      </c>
+      <c r="J74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75">
+        <v>17</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75">
+        <v>81</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>47</v>
+      </c>
+      <c r="J75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76">
+        <v>18</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76">
+        <v>82</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>47</v>
+      </c>
+      <c r="J76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77">
+        <v>19</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77">
+        <v>83</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>47</v>
+      </c>
+      <c r="J77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78">
+        <v>20</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78">
+        <v>84</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>49</v>
+      </c>
+      <c r="I78" t="s">
+        <v>47</v>
+      </c>
+      <c r="J78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79">
+        <v>21</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79">
+        <v>85</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>47</v>
+      </c>
+      <c r="J79" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80">
+        <v>22</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80">
+        <v>86</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>47</v>
+      </c>
+      <c r="J80" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81">
+        <v>23</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81">
+        <v>87</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>49</v>
+      </c>
+      <c r="I81" t="s">
+        <v>47</v>
+      </c>
+      <c r="J81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82">
+        <v>24</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82">
+        <v>88</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>47</v>
+      </c>
+      <c r="J82" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83">
+        <v>89</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>47</v>
+      </c>
+      <c r="J83" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84">
+        <v>26</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84">
+        <v>90</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85">
+        <v>27</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85">
+        <v>91</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>47</v>
+      </c>
+      <c r="J85" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86">
+        <v>28</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86">
+        <v>92</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>47</v>
+      </c>
+      <c r="J86" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87">
+        <v>29</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87">
+        <v>93</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J87" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>44</v>
+      </c>
+      <c r="D88">
+        <v>30</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88">
+        <v>94</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>47</v>
+      </c>
+      <c r="J88" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89">
+        <v>31</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89">
+        <v>95</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>47</v>
+      </c>
+      <c r="J89" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>44</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90">
+        <v>96</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>47</v>
+      </c>
+      <c r="J90" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>44</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91">
+        <v>97</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>47</v>
+      </c>
+      <c r="J91" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92">
+        <v>98</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>47</v>
+      </c>
+      <c r="J92" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93">
+        <v>99</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>47</v>
+      </c>
+      <c r="J93" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H94">
+        <f>COUNTIF(H2:H93," True ")</f>
+        <v>20</v>
+      </c>
+      <c r="J94">
+        <f>COUNTIF(J2:J93," True")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H95">
+        <f>H94/COUNTA(H1:H93)</f>
+        <v>0.21505376344086022</v>
+      </c>
+      <c r="J95">
+        <f>J94/COUNTA(J1:J93)</f>
+        <v>0.10752688172043011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388B3D28-54BC-42F1-9D62-23B2768AF7DF}">
+  <dimension ref="A1:J102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="J108" sqref="J108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>33</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>39</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>40</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>47</v>
+      </c>
+      <c r="J41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <v>42</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>43</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>47</v>
+      </c>
+      <c r="J43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44">
+        <v>44</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>45</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <v>46</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>47</v>
+      </c>
+      <c r="J46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <v>47</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>48</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>47</v>
+      </c>
+      <c r="J48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>49</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>47</v>
+      </c>
+      <c r="J49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <v>50</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>47</v>
+      </c>
+      <c r="J50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51">
+        <v>22</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>51</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>47</v>
+      </c>
+      <c r="J51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <v>52</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>47</v>
+      </c>
+      <c r="J52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <v>53</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>47</v>
+      </c>
+      <c r="J53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <v>54</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>49</v>
+      </c>
+      <c r="I54" t="s">
+        <v>47</v>
+      </c>
+      <c r="J54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55">
+        <v>28</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <v>55</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>47</v>
+      </c>
+      <c r="J55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56">
+        <v>29</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56">
+        <v>56</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>49</v>
+      </c>
+      <c r="I56" t="s">
+        <v>47</v>
+      </c>
+      <c r="J56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57">
+        <v>31</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57">
+        <v>57</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58">
+        <v>58</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>47</v>
+      </c>
+      <c r="J58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59">
+        <v>59</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>47</v>
+      </c>
+      <c r="J59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60">
+        <v>60</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>49</v>
+      </c>
+      <c r="I60" t="s">
+        <v>47</v>
+      </c>
+      <c r="J60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61">
+        <v>61</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>47</v>
+      </c>
+      <c r="J61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62">
+        <v>62</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>47</v>
+      </c>
+      <c r="J62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>63</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>47</v>
+      </c>
+      <c r="J63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64">
+        <v>64</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>49</v>
+      </c>
+      <c r="I64" t="s">
+        <v>47</v>
+      </c>
+      <c r="J64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <v>65</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>49</v>
+      </c>
+      <c r="I65" t="s">
+        <v>47</v>
+      </c>
+      <c r="J65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66">
+        <v>66</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>47</v>
+      </c>
+      <c r="J66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67">
+        <v>67</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>47</v>
+      </c>
+      <c r="J67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68">
+        <v>68</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>49</v>
+      </c>
+      <c r="I68" t="s">
+        <v>47</v>
+      </c>
+      <c r="J68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69">
+        <v>69</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>47</v>
+      </c>
+      <c r="J69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70">
+        <v>70</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>47</v>
+      </c>
+      <c r="J70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71">
+        <v>71</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>47</v>
+      </c>
+      <c r="J71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72">
+        <v>72</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>49</v>
+      </c>
+      <c r="I72" t="s">
+        <v>47</v>
+      </c>
+      <c r="J72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <v>73</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>47</v>
+      </c>
+      <c r="J73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74">
+        <v>16</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74">
+        <v>74</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>47</v>
+      </c>
+      <c r="J74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75">
+        <v>17</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75">
+        <v>75</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>47</v>
+      </c>
+      <c r="J75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76">
+        <v>18</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76">
+        <v>76</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>47</v>
+      </c>
+      <c r="J76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77">
+        <v>19</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77">
+        <v>77</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>47</v>
+      </c>
+      <c r="J77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78">
+        <v>20</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>49</v>
+      </c>
+      <c r="I78" t="s">
+        <v>47</v>
+      </c>
+      <c r="J78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79">
+        <v>21</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79">
+        <v>79</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>47</v>
+      </c>
+      <c r="J79" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80">
+        <v>22</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80">
+        <v>80</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>47</v>
+      </c>
+      <c r="J80" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81">
+        <v>23</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81">
+        <v>81</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>49</v>
+      </c>
+      <c r="I81" t="s">
+        <v>47</v>
+      </c>
+      <c r="J81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82">
+        <v>24</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82">
+        <v>82</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>47</v>
+      </c>
+      <c r="J82" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83">
+        <v>83</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>47</v>
+      </c>
+      <c r="J83" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84">
+        <v>26</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84">
+        <v>84</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85">
+        <v>27</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85">
+        <v>85</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>47</v>
+      </c>
+      <c r="J85" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86">
+        <v>28</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86">
+        <v>86</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>47</v>
+      </c>
+      <c r="J86" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87">
+        <v>29</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87">
+        <v>87</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J87" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>44</v>
+      </c>
+      <c r="D88">
+        <v>30</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88">
+        <v>88</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>47</v>
+      </c>
+      <c r="J88" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89">
+        <v>31</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89">
+        <v>89</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>47</v>
+      </c>
+      <c r="J89" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>44</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90">
+        <v>90</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>47</v>
+      </c>
+      <c r="J90" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>44</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91">
+        <v>91</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>47</v>
+      </c>
+      <c r="J91" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92">
+        <v>92</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>47</v>
+      </c>
+      <c r="J92" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93">
+        <v>93</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>47</v>
+      </c>
+      <c r="J93" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94">
+        <v>94</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>47</v>
+      </c>
+      <c r="J94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95">
+        <v>95</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>49</v>
+      </c>
+      <c r="I95" t="s">
+        <v>47</v>
+      </c>
+      <c r="J95" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
+        <v>43</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>44</v>
+      </c>
+      <c r="D96">
+        <v>7</v>
+      </c>
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96">
+        <v>96</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>47</v>
+      </c>
+      <c r="J96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97">
+        <v>8</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97">
+        <v>97</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>47</v>
+      </c>
+      <c r="J97" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
+        <v>43</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>44</v>
+      </c>
+      <c r="D98">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98">
+        <v>98</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>47</v>
+      </c>
+      <c r="J98" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>44</v>
+      </c>
+      <c r="D99">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99">
+        <v>99</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>47</v>
+      </c>
+      <c r="J99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>44</v>
+      </c>
+      <c r="D100">
+        <v>11</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100">
+        <v>100</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>47</v>
+      </c>
+      <c r="J100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H101">
+        <f>COUNTIF(H1:H100," True ")</f>
+        <v>21</v>
+      </c>
+      <c r="J101">
+        <f>COUNTIF(J1:J100," True")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H102">
+        <f>H101/COUNTA(H1:H100)</f>
+        <v>0.21</v>
+      </c>
+      <c r="J102">
+        <f>J101/COUNTA(J1:J100)</f>
+        <v>0.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18AC925-C09D-41B2-ACCA-E248292D553A}">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:J102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="L96" sqref="L96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>33</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>39</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>40</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" t="s">
+        <v>47</v>
+      </c>
+      <c r="J41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <v>42</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>49</v>
+      </c>
+      <c r="I42" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>43</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>47</v>
+      </c>
+      <c r="J43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44">
+        <v>44</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>45</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <v>46</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>49</v>
+      </c>
+      <c r="I46" t="s">
+        <v>47</v>
+      </c>
+      <c r="J46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <v>47</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>49</v>
+      </c>
+      <c r="I47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>48</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>49</v>
+      </c>
+      <c r="I48" t="s">
+        <v>47</v>
+      </c>
+      <c r="J48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49">
+        <v>22</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>49</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" t="s">
+        <v>47</v>
+      </c>
+      <c r="J49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <v>50</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>49</v>
+      </c>
+      <c r="I50" t="s">
+        <v>47</v>
+      </c>
+      <c r="J50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51">
+        <v>24</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>51</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>49</v>
+      </c>
+      <c r="I51" t="s">
+        <v>47</v>
+      </c>
+      <c r="J51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52">
+        <v>25</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <v>52</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>49</v>
+      </c>
+      <c r="I52" t="s">
+        <v>47</v>
+      </c>
+      <c r="J52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53">
+        <v>26</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <v>53</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I53" t="s">
+        <v>47</v>
+      </c>
+      <c r="J53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54">
+        <v>27</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <v>54</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>49</v>
+      </c>
+      <c r="I54" t="s">
+        <v>47</v>
+      </c>
+      <c r="J54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55">
+        <v>28</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <v>55</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>49</v>
+      </c>
+      <c r="I55" t="s">
+        <v>47</v>
+      </c>
+      <c r="J55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56">
+        <v>30</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56">
+        <v>56</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>49</v>
+      </c>
+      <c r="I56" t="s">
+        <v>47</v>
+      </c>
+      <c r="J56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57">
+        <v>31</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57">
+        <v>57</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58">
+        <v>58</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>49</v>
+      </c>
+      <c r="I58" t="s">
+        <v>47</v>
+      </c>
+      <c r="J58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59">
+        <v>59</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>49</v>
+      </c>
+      <c r="I59" t="s">
+        <v>47</v>
+      </c>
+      <c r="J59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60">
+        <v>60</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>49</v>
+      </c>
+      <c r="I60" t="s">
+        <v>47</v>
+      </c>
+      <c r="J60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61">
+        <v>61</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>49</v>
+      </c>
+      <c r="I61" t="s">
+        <v>47</v>
+      </c>
+      <c r="J61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62">
+        <v>62</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>49</v>
+      </c>
+      <c r="I62" t="s">
+        <v>47</v>
+      </c>
+      <c r="J62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>63</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>49</v>
+      </c>
+      <c r="I63" t="s">
+        <v>47</v>
+      </c>
+      <c r="J63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64">
+        <v>64</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>49</v>
+      </c>
+      <c r="I64" t="s">
+        <v>47</v>
+      </c>
+      <c r="J64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <v>65</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>47</v>
+      </c>
+      <c r="J65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66">
+        <v>66</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>49</v>
+      </c>
+      <c r="I66" t="s">
+        <v>47</v>
+      </c>
+      <c r="J66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67">
+        <v>67</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>49</v>
+      </c>
+      <c r="I67" t="s">
+        <v>47</v>
+      </c>
+      <c r="J67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68">
+        <v>68</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>47</v>
+      </c>
+      <c r="J68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69">
+        <v>69</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>49</v>
+      </c>
+      <c r="I69" t="s">
+        <v>47</v>
+      </c>
+      <c r="J69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70">
+        <v>70</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>49</v>
+      </c>
+      <c r="I70" t="s">
+        <v>47</v>
+      </c>
+      <c r="J70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71">
+        <v>71</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>49</v>
+      </c>
+      <c r="I71" t="s">
+        <v>47</v>
+      </c>
+      <c r="J71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72">
+        <v>16</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72">
+        <v>72</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>49</v>
+      </c>
+      <c r="I72" t="s">
+        <v>47</v>
+      </c>
+      <c r="J72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <v>73</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>49</v>
+      </c>
+      <c r="I73" t="s">
+        <v>47</v>
+      </c>
+      <c r="J73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74">
+        <v>18</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74">
+        <v>74</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>49</v>
+      </c>
+      <c r="I74" t="s">
+        <v>47</v>
+      </c>
+      <c r="J74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75">
+        <v>19</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75">
+        <v>75</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>49</v>
+      </c>
+      <c r="I75" t="s">
+        <v>47</v>
+      </c>
+      <c r="J75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76">
+        <v>20</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76">
+        <v>76</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>49</v>
+      </c>
+      <c r="I76" t="s">
+        <v>47</v>
+      </c>
+      <c r="J76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77">
+        <v>21</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77">
+        <v>77</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>47</v>
+      </c>
+      <c r="J77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78">
+        <v>22</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>49</v>
+      </c>
+      <c r="I78" t="s">
+        <v>47</v>
+      </c>
+      <c r="J78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79">
+        <v>23</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79">
+        <v>79</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>49</v>
+      </c>
+      <c r="I79" t="s">
+        <v>47</v>
+      </c>
+      <c r="J79" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80">
+        <v>80</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>49</v>
+      </c>
+      <c r="I80" t="s">
+        <v>47</v>
+      </c>
+      <c r="J80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81">
+        <v>26</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81">
+        <v>81</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>49</v>
+      </c>
+      <c r="I81" t="s">
+        <v>47</v>
+      </c>
+      <c r="J81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82">
+        <v>28</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82">
+        <v>82</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>49</v>
+      </c>
+      <c r="I82" t="s">
+        <v>47</v>
+      </c>
+      <c r="J82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83">
+        <v>29</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83">
+        <v>83</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>47</v>
+      </c>
+      <c r="J83" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84">
+        <v>30</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84">
+        <v>84</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>49</v>
+      </c>
+      <c r="I84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85">
+        <v>31</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85">
+        <v>85</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>47</v>
+      </c>
+      <c r="J85" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86">
+        <v>86</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>49</v>
+      </c>
+      <c r="I86" t="s">
+        <v>47</v>
+      </c>
+      <c r="J86" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87">
+        <v>87</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>49</v>
+      </c>
+      <c r="I87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>44</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88">
+        <v>88</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>47</v>
+      </c>
+      <c r="J88" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89">
+        <v>89</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>49</v>
+      </c>
+      <c r="I89" t="s">
+        <v>47</v>
+      </c>
+      <c r="J89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>44</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90">
+        <v>90</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>49</v>
+      </c>
+      <c r="I90" t="s">
+        <v>47</v>
+      </c>
+      <c r="J90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>44</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91">
+        <v>91</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>49</v>
+      </c>
+      <c r="I91" t="s">
+        <v>47</v>
+      </c>
+      <c r="J91" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92">
+        <v>92</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>49</v>
+      </c>
+      <c r="I92" t="s">
+        <v>47</v>
+      </c>
+      <c r="J92" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93">
+        <v>93</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>49</v>
+      </c>
+      <c r="I93" t="s">
+        <v>47</v>
+      </c>
+      <c r="J93" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D94">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94">
+        <v>94</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>49</v>
+      </c>
+      <c r="I94" t="s">
+        <v>47</v>
+      </c>
+      <c r="J94" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95">
+        <v>95</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>49</v>
+      </c>
+      <c r="I95" t="s">
+        <v>47</v>
+      </c>
+      <c r="J95" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
+        <v>43</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>44</v>
+      </c>
+      <c r="D96">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96">
+        <v>96</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>49</v>
+      </c>
+      <c r="I96" t="s">
+        <v>47</v>
+      </c>
+      <c r="J96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97">
+        <v>13</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97">
+        <v>97</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>49</v>
+      </c>
+      <c r="I97" t="s">
+        <v>47</v>
+      </c>
+      <c r="J97" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
+        <v>43</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>44</v>
+      </c>
+      <c r="D98">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98">
+        <v>98</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>49</v>
+      </c>
+      <c r="I98" t="s">
+        <v>47</v>
+      </c>
+      <c r="J98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>44</v>
+      </c>
+      <c r="D99">
+        <v>15</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99">
+        <v>99</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>49</v>
+      </c>
+      <c r="I99" t="s">
+        <v>47</v>
+      </c>
+      <c r="J99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>44</v>
+      </c>
+      <c r="D100">
+        <v>17</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100">
+        <v>100</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>49</v>
+      </c>
+      <c r="I100" t="s">
+        <v>47</v>
+      </c>
+      <c r="J100" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H101">
+        <f>COUNTIF(H1:H100," True ")</f>
+        <v>68</v>
+      </c>
+      <c r="J101">
+        <f>COUNTIF(J1:J100," True")</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H102">
+        <f>H101/COUNTA(H1:H100)</f>
+        <v>0.68</v>
+      </c>
+      <c r="J102">
+        <f>J101/COUNTA(J1:J100)</f>
+        <v>0.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115AD103-372D-42BD-96B8-3C24C4164EBA}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7741,7 +17287,7 @@
         <v>1.89926665353899E-3</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G13" si="0">255/A6</f>
+        <f t="shared" ref="G6:G12" si="0">255/A6</f>
         <v>127.5</v>
       </c>
     </row>
@@ -7897,6 +17443,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7957,6 +17504,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8012,6 +17560,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView topLeftCell="A83" workbookViewId="0">
@@ -9758,6 +19307,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91ACCD6F-04CF-44FE-A1B1-6D2E07BDC04E}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9950,6 +19500,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9E714F-1323-4878-B5E9-E63B10F08A2E}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView topLeftCell="H4" workbookViewId="0">
@@ -11755,6 +21306,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C460BE-E48D-4A66-A778-EE715080F31E}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -12422,6 +21974,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7BFA73-9793-4AD5-8067-A07AF1931C66}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
@@ -13687,9 +23240,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499C8CF7-04DD-471A-909E-CCD411183114}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>

--- a/results/cifar10-on-ResNet18-add-gaussian-blur-gradient-based-attacks.xlsx
+++ b/results/cifar10-on-ResNet18-add-gaussian-blur-gradient-based-attacks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adzie\code\bandlimited-cnns\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED219CBE-F3FD-4173-8152-4FCBAE387FB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180B0E5F-EC62-47CA-9D92-784DFEFB411D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="12192" tabRatio="807" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="12192" tabRatio="807" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cifar10-on-ResNet18-add-gaussia" sheetId="1" r:id="rId1"/>
@@ -13943,7 +13943,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
@@ -19503,8 +19503,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -21309,7 +21309,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
